--- a/pre/offers-53/slimjet/pl/Преленд 8 капсулы Slimjet PL.xlsx
+++ b/pre/offers-53/slimjet/pl/Преленд 8 капсулы Slimjet PL.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="107">
   <si>
     <t>Jak straciłam 20 kg w ciągu miesiąca i zmieniłam swoje życie! Osobiste doświadczenia</t>
   </si>
@@ -55,13 +55,13 @@
     <t xml:space="preserve">Te słowa były dla mnie jak grzmot w środku czystego dnia... Czułam się bezużyteczna i niepotrzebna. Im dłużej patrzyłam na swoje odbicie w lustrze, tym gorzej się czułam. Nie miałam już siły, by walczyć. Była tylko jedna myśl w mojej głowie... niech to się skończy... Moja przyjaciółka mnie uratowała. </t>
   </si>
   <si>
-    <t xml:space="preserve">Poznała dziewczynę o imieniu Małgosia na portalu społecznościowym. Powiedziała mi, że nie tak dawno temu, miała te same problemy co ja. Trudno było w to uwierzyć, bo ze zdjęcia patrzyła na mnie smukła, oszałamiająca piękność!!!! Małgorzata zaprosiła mnie do zespołu, gdzie ludzie mówili o kroplach odchudzających - </t>
+    <t xml:space="preserve">Poznała dziewczynę o imieniu Małgosia na portalu społecznościowym. Powiedziała mi, że nie tak dawno temu, miała te same problemy co ja. Trudno było w to uwierzyć, bo ze zdjęcia patrzyła na mnie smukła, oszałamiająca piękność!!!! Małgorzata zaprosiła mnie do zespołu, gdzie ludzie mówili o kapcułkach odchudzających - </t>
   </si>
   <si>
     <t>SlimJet.</t>
   </si>
   <si>
-    <t>Czytałam recenzje i rozmawiałam z dziewczynami, którym udało się schudnąć z</t>
+    <t>Czytałam recenzje i rozmawiałam z dziewczynami, którym udało się schudnąć za</t>
   </si>
   <si>
     <t>pomocą SlimJet.</t>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">Zostawiam link do firmy, w której zamówiłam ten środek. </t>
   </si>
   <si>
-    <t>Jest to jedyna certyfikowana firma, która sprzedaje</t>
+    <t>Jest to jedyna certyfikowana firma, która sprzedaje kapsułki</t>
   </si>
   <si>
     <t xml:space="preserve">Dostawa jest bardzo szybka, płatność po dostarczeniu, kurierowi. </t>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">Obecnie mają specjalną ofertę na </t>
   </si>
   <si>
-    <t>krople SlimJet</t>
+    <t>kapsułki SlimJet,</t>
   </si>
   <si>
     <t xml:space="preserve">więc można zamówić z rabatem!!!! </t>
@@ -127,7 +127,7 @@
     <t>Grażyna</t>
   </si>
   <si>
-    <t xml:space="preserve">Moja córka używała tych kropli. Waga szybko zeszła), a w ciągu miesiąca zamieniła się w modelkę :))). naprawdę działa. Polecam go. </t>
+    <t xml:space="preserve">Moja córka używała tych kapsułek. Waga szybko zeszła), a w ciągu miesiąca zamieniła się w modelkę :))). naprawdę działa. Polecam środek. </t>
   </si>
   <si>
     <t xml:space="preserve">siedem minut temu l </t>
@@ -139,7 +139,7 @@
     <t>Magda Lisowska</t>
   </si>
   <si>
-    <t xml:space="preserve">Jestem zachwycona! Krople są idealne dla kobiet powyżej 30 roku życia! Przyjaciele mi zazdroszczą, a ja czuję się jak księżniczka :))). A mój mąż jest szczęśliwy :) </t>
+    <t xml:space="preserve">Jestem zachwycona! Kapsułki są idealne dla kobiet powyżej 30 roku życia! Przyjaciele mi zazdroszczą, a ja czuję się jak księżniczka :))). A mój mąż jest szczęśliwy :) </t>
   </si>
   <si>
     <t xml:space="preserve">10 minut temu l </t>
@@ -169,10 +169,10 @@
     <t>Dzień dobry! Minął miesiąc odkąd otrzymałam</t>
   </si>
   <si>
-    <t>krople SlimJet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Straciłam siedem funtów. Zaczęłam od 67 kg, a teraz ważę 60 kg. Jestem bardzo zadowolona z siebie i swojego wyglądu. Każdy, kto nie może schudnąć, powinien spróbować tych kropli, ponieważ mogą one czynić cuda! Jeszcze raz dziękuję!</t>
+    <t>kapsułki SlimJet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Straciłam siedem funtów. Zaczęłam od 67 kg, a teraz ważę 60 kg. Jestem bardzo zadowolona z siebie i swojego wyglądu. Każdy, kto nie może schudnąć, powinien spróbować tę kapsułki, ponieważ mogą one czynić cuda! Jeszcze raz dziękuję!</t>
   </si>
   <si>
     <t xml:space="preserve">29 minut temu l </t>
@@ -181,7 +181,7 @@
     <t>Gabriela Nowak</t>
   </si>
   <si>
-    <t>Cześć, Natusiu! Zamówiłam, zobaczmy jaki będzie wynik.</t>
+    <t>Cześć, Natusiu! Zamówiłam, zobaczymy jaki będzie wynik.</t>
   </si>
   <si>
     <t xml:space="preserve">38 minut temu l </t>
@@ -211,6 +211,9 @@
     <t xml:space="preserve">Witam! Używam </t>
   </si>
   <si>
+    <t>kapsułki SlimJet</t>
+  </si>
+  <si>
     <t xml:space="preserve">przez tydzień ... Nie mam na to słów! Natusiu, dziękuję! -2 kg Moja talia jest mniejsza!!!! Mąż w siódmym niebie z radości! </t>
   </si>
   <si>
@@ -238,7 +241,7 @@
     <t>Ioasia Zimowiejska</t>
   </si>
   <si>
-    <t xml:space="preserve">Ja też znam ten artykuł. Używałam go kilka miesięcy temu. Teraz jestem szczupła i czuję się świetnie! (-2 rozmiar) </t>
+    <t xml:space="preserve">Ja też znam te kapsułki. Używałam ich kilka miesięcy temu. Teraz jestem szczupła i czuję się świetnie! (-2 rozmiar) </t>
   </si>
   <si>
     <t xml:space="preserve">53 minut temu l </t>
@@ -271,7 +274,7 @@
     <t xml:space="preserve">Moje ciało jest piękne :)))))))))))))))))) W porządku! polecam </t>
   </si>
   <si>
-    <t xml:space="preserve">każdej dziewczynie! Ten środek jest najlepszy dla odchudzania! </t>
+    <t xml:space="preserve">każdej dziewczynie! Ten środek jest najlepszy do odchudzania! </t>
   </si>
   <si>
     <t xml:space="preserve">godzinę temu l </t>
@@ -307,7 +310,7 @@
     <t>Silvia Antoniak</t>
   </si>
   <si>
-    <t>У меня теперь новая проблема! Все на работе мне завидуют, что я так похудела, лол</t>
+    <t>Mam teraz inny problem! W pracę wszystscy zazdroszczą mojemu odchudzaniu.</t>
   </si>
   <si>
     <t xml:space="preserve">godzinę temul </t>
@@ -1336,17 +1339,17 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
@@ -1356,17 +1359,17 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
@@ -1376,17 +1379,17 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
@@ -1396,17 +1399,17 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
@@ -1416,17 +1419,17 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
@@ -1436,27 +1439,27 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
@@ -1466,27 +1469,27 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
@@ -1496,17 +1499,17 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
@@ -1516,27 +1519,27 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
@@ -1546,17 +1549,17 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
@@ -1566,17 +1569,17 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
@@ -1586,17 +1589,17 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="2" t="s">
-        <v>96</v>
+      <c r="A125" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
@@ -2491,42 +2494,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
